--- a/output/PERSEVERA_31326427000108.xlsx
+++ b/output/PERSEVERA_31326427000108.xlsx
@@ -680,10 +680,10 @@
         <v>44165</v>
       </c>
       <c r="B27">
-        <v>0.1299212000000001</v>
+        <v>0.1246332999999999</v>
       </c>
       <c r="C27">
-        <v>0.01988756986265772</v>
+        <v>0.01511461447366513</v>
       </c>
     </row>
   </sheetData>

--- a/output/PERSEVERA_31326427000108.xlsx
+++ b/output/PERSEVERA_31326427000108.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>PERSEVERA COMPASS FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43404</v>
       </c>
@@ -411,279 +405,204 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43434</v>
       </c>
       <c r="B3">
         <v>0.004388499999999906</v>
       </c>
-      <c r="C3">
-        <v>0.004388499999999906</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43465</v>
       </c>
       <c r="B4">
-        <v>0.009622299999999973</v>
-      </c>
-      <c r="C4">
         <v>0.005210931825682996</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43496</v>
       </c>
       <c r="B5">
-        <v>0.0262753</v>
-      </c>
-      <c r="C5">
         <v>0.01649428702198841</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43524</v>
       </c>
       <c r="B6">
-        <v>0.02562339999999996</v>
-      </c>
-      <c r="C6">
         <v>-0.0006352096752206826</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43555</v>
       </c>
       <c r="B7">
-        <v>0.02491270000000001</v>
-      </c>
-      <c r="C7">
         <v>-0.0006929444082496294</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43585</v>
       </c>
       <c r="B8">
-        <v>0.02872680000000005</v>
-      </c>
-      <c r="C8">
         <v>0.003721390124251656</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43616</v>
       </c>
       <c r="B9">
-        <v>0.04650759999999998</v>
-      </c>
-      <c r="C9">
         <v>0.01728427800267274</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43646</v>
       </c>
       <c r="B10">
-        <v>0.06336070000000005</v>
-      </c>
-      <c r="C10">
         <v>0.0161041353163609</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43677</v>
       </c>
       <c r="B11">
-        <v>0.06969029999999998</v>
-      </c>
-      <c r="C11">
         <v>0.005952448684627853</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43708</v>
       </c>
       <c r="B12">
-        <v>0.06309870000000006</v>
-      </c>
-      <c r="C12">
         <v>-0.006162157402006874</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43738</v>
       </c>
       <c r="B13">
-        <v>0.08522289999999999</v>
-      </c>
-      <c r="C13">
         <v>0.02081104981127324</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43769</v>
       </c>
       <c r="B14">
-        <v>0.09756349999999991</v>
-      </c>
-      <c r="C14">
         <v>0.01137148875129701</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43799</v>
       </c>
       <c r="B15">
-        <v>0.08997739999999999</v>
-      </c>
-      <c r="C15">
         <v>-0.006911764102942475</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43830</v>
       </c>
       <c r="B16">
-        <v>0.1088439000000001</v>
-      </c>
-      <c r="C16">
         <v>0.01730907448172792</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43861</v>
       </c>
       <c r="B17">
-        <v>0.1035539000000001</v>
-      </c>
-      <c r="C17">
         <v>-0.004770734636318053</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43890</v>
       </c>
       <c r="B18">
-        <v>0.09463639999999995</v>
-      </c>
-      <c r="C18">
         <v>-0.008080710874203922</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43921</v>
       </c>
       <c r="B19">
-        <v>0.1019255999999999</v>
-      </c>
-      <c r="C19">
         <v>0.006659014810762809</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43951</v>
       </c>
       <c r="B20">
-        <v>0.1314181000000001</v>
-      </c>
-      <c r="C20">
         <v>0.02676451114303924</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43982</v>
       </c>
       <c r="B21">
-        <v>0.1516772</v>
-      </c>
-      <c r="C21">
         <v>0.01790593592236145</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>44012</v>
       </c>
       <c r="B22">
-        <v>0.1387213</v>
-      </c>
-      <c r="C22">
         <v>-0.01124959320198393</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>44043</v>
       </c>
       <c r="B23">
-        <v>0.1642811</v>
-      </c>
-      <c r="C23">
         <v>0.02244605418375856</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>44074</v>
       </c>
       <c r="B24">
-        <v>0.1544182999999999</v>
-      </c>
-      <c r="C24">
         <v>-0.008471150137196348</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>44104</v>
       </c>
       <c r="B25">
-        <v>0.1312025000000001</v>
-      </c>
-      <c r="C25">
         <v>-0.02011038806297494</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>44135</v>
       </c>
       <c r="B26">
-        <v>0.107888</v>
-      </c>
-      <c r="C26">
         <v>-0.02061036817015527</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>44165</v>
       </c>
       <c r="B27">
-        <v>0.1246332999999999</v>
-      </c>
-      <c r="C27">
-        <v>0.01511461447366513</v>
+        <v>0.01321469318198232</v>
       </c>
     </row>
   </sheetData>
